--- a/trunk/Org. Interna/Tareas,Horario repositoio.xlsx
+++ b/trunk/Org. Interna/Tareas,Horario repositoio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>Integrantes</t>
   </si>
@@ -139,6 +139,42 @@
   </si>
   <si>
     <t># tareas mayo 16 - 22</t>
+  </si>
+  <si>
+    <t>Terminado</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>T12, T13, T16, CE3, CE18, CE19, CE20, CE21, CE22, P13, P14, JE1</t>
+  </si>
+  <si>
+    <t>CE1, CE2, CE23, CE25, CE26, CE27, CE28</t>
+  </si>
+  <si>
+    <t>CE13, CE14, CE15, CE16, P10, P17, P18, P11, P12</t>
+  </si>
+  <si>
+    <t>CE4, CE5, CE6, CE7, CE29, CE8, CCE9,CE10, CE11</t>
+  </si>
+  <si>
+    <t>Jugadores en cada casilla pensar</t>
+  </si>
+  <si>
+    <t>Mayo 25/2010 hora: 5:00 pm</t>
+  </si>
+  <si>
+    <t>Mayo 22/2010 hora: 6:00 pm</t>
+  </si>
+  <si>
+    <t>#tareas mayo 23 - 29</t>
   </si>
 </sst>
 </file>
@@ -190,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -213,11 +249,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,10 +350,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -525,36 +702,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
+      <pane ySplit="12" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
@@ -562,14 +746,18 @@
       <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
@@ -577,14 +765,18 @@
       <c r="F3" s="2">
         <v>3</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
@@ -592,14 +784,18 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="3" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
@@ -607,14 +803,18 @@
       <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A6" s="3" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
@@ -622,14 +822,18 @@
       <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="3" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="8">
+        <v>2</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
@@ -637,36 +841,44 @@
       <c r="F7" s="2">
         <v>4</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A12" s="4" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A13" s="4" t="s">
+      <c r="K12" s="6"/>
+      <c r="L12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
@@ -680,14 +892,18 @@
       <c r="J13" s="2">
         <v>8</v>
       </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A14" s="4" t="s">
+      <c r="K13" s="5"/>
+      <c r="L13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
@@ -701,14 +917,18 @@
       <c r="J14" s="2">
         <v>8</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A15" s="4" t="s">
+      <c r="K14" s="5"/>
+      <c r="L14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="2" t="s">
         <v>24</v>
       </c>
@@ -722,14 +942,18 @@
       <c r="J15" s="2">
         <v>6</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A16" s="4" t="s">
+      <c r="K15" s="5"/>
+      <c r="L15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="2" t="s">
         <v>24</v>
       </c>
@@ -743,14 +967,18 @@
       <c r="J16" s="2">
         <v>6</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A17" s="4" t="s">
+      <c r="K16" s="5"/>
+      <c r="L16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
@@ -764,14 +992,18 @@
       <c r="J17" s="2">
         <v>10</v>
       </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A18" s="4" t="s">
+      <c r="K17" s="5"/>
+      <c r="L17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="2" t="s">
         <v>26</v>
       </c>
@@ -785,14 +1017,18 @@
       <c r="J18" s="2">
         <v>10</v>
       </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A19" s="4" t="s">
+      <c r="K18" s="5"/>
+      <c r="L18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
@@ -806,14 +1042,18 @@
       <c r="J19" s="2">
         <v>7</v>
       </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A20" s="4" t="s">
+      <c r="K19" s="5"/>
+      <c r="L19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="2" t="s">
         <v>28</v>
       </c>
@@ -827,14 +1067,18 @@
       <c r="J20" s="2">
         <v>8</v>
       </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A21" s="4" t="s">
+      <c r="K20" s="5"/>
+      <c r="L20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
         <v>29</v>
       </c>
@@ -848,14 +1092,18 @@
       <c r="J21" s="2">
         <v>8</v>
       </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A22" s="4" t="s">
+      <c r="K21" s="5"/>
+      <c r="L21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
@@ -869,14 +1117,18 @@
       <c r="J22" s="2">
         <v>4</v>
       </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A23" s="4" t="s">
+      <c r="K22" s="5"/>
+      <c r="L22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="2" t="s">
         <v>29</v>
       </c>
@@ -890,433 +1142,543 @@
       <c r="J23" s="2">
         <v>10</v>
       </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A24" s="4" t="s">
+      <c r="K23" s="5"/>
+      <c r="L23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2">
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10">
         <v>10</v>
       </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="K24" s="11"/>
+      <c r="L24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" s="14" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18">
+        <v>9</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="20"/>
+    </row>
+    <row r="26" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8">
+        <v>9</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="13"/>
+    </row>
+    <row r="27" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8">
+        <v>9</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8">
+        <v>9</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8">
+        <v>9</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="13"/>
+    </row>
+    <row r="30" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="13"/>
+    </row>
+    <row r="32" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="13"/>
+    </row>
+    <row r="33" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="13"/>
+    </row>
+    <row r="36" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="13"/>
+    </row>
+    <row r="37" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="13"/>
+    </row>
+    <row r="38" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="13"/>
+    </row>
+    <row r="39" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="13"/>
+    </row>
+    <row r="40" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="13"/>
+    </row>
+    <row r="41" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="13"/>
+    </row>
+    <row r="42" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="13"/>
+    </row>
+    <row r="43" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="13"/>
+    </row>
+    <row r="44" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="13"/>
+    </row>
+    <row r="46" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="13"/>
+    </row>
+    <row r="47" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="13"/>
+    </row>
+    <row r="48" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="13"/>
+    </row>
+    <row r="49" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="13"/>
+    </row>
+    <row r="50" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="13"/>
+    </row>
+    <row r="51" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="13"/>
+    </row>
+    <row r="52" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="13"/>
+    </row>
+    <row r="53" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="13"/>
+    </row>
+    <row r="54" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="13"/>
+    </row>
+    <row r="55" spans="1:13" s="14" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="13"/>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" thickTop="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1329,7 +1691,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:13">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1342,7 +1704,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:13">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1355,7 +1717,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:13">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1368,23 +1730,23 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:13">
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:13">
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:13">
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:13">
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:13">
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
@@ -1508,7 +1870,287 @@
       <c r="K78" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="253">
+  <mergeCells count="304">
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="A50:C50"/>
     <mergeCell ref="A78:C78"/>
     <mergeCell ref="D78:F78"/>
     <mergeCell ref="G78:I78"/>
@@ -1533,235 +2175,6 @@
     <mergeCell ref="A72:C72"/>
     <mergeCell ref="D72:F72"/>
     <mergeCell ref="G72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/trunk/Org. Interna/Tareas,Horario repositoio.xlsx
+++ b/trunk/Org. Interna/Tareas,Horario repositoio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>Integrantes</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Jugadores en cada casilla pensar</t>
   </si>
   <si>
-    <t>Mayo 25/2010 hora: 5:00 pm</t>
-  </si>
-  <si>
     <t>Mayo 22/2010 hora: 6:00 pm</t>
   </si>
   <si>
@@ -180,31 +177,7 @@
     <t>William</t>
   </si>
   <si>
-    <t>Junio 1/2010 hora: 4:00 pm</t>
-  </si>
-  <si>
-    <t>Todos</t>
-  </si>
-  <si>
-    <t>Documento word especificando que  va a exponer cada uno</t>
-  </si>
-  <si>
-    <t>Corregir SDD de cada sección cada uno</t>
-  </si>
-  <si>
-    <t>Completar SPMP calendario</t>
-  </si>
-  <si>
-    <t>Revisar como se genera el instalador</t>
-  </si>
-  <si>
-    <t>Terminar Manual de usuario</t>
-  </si>
-  <si>
-    <t>Junio 2/2010 hora: 4:00 pm</t>
-  </si>
-  <si>
-    <t>#tareas mayo 31 -  jun 4</t>
+    <t>Mayo 25/2010 hora: 10:00 pm</t>
   </si>
 </sst>
 </file>
@@ -735,8 +708,8 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41:I41"/>
+      <pane ySplit="12" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -759,13 +732,9 @@
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="22"/>
-      <c r="J1" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="16" t="s">
@@ -785,10 +754,6 @@
         <v>1</v>
       </c>
       <c r="I2" s="8"/>
-      <c r="J2" s="8">
-        <v>3</v>
-      </c>
-      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="16" t="s">
@@ -808,10 +773,6 @@
         <v>0</v>
       </c>
       <c r="I3" s="8"/>
-      <c r="J3" s="8">
-        <v>1</v>
-      </c>
-      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="16" t="s">
@@ -831,10 +792,6 @@
         <v>1</v>
       </c>
       <c r="I4" s="8"/>
-      <c r="J4" s="8">
-        <v>2</v>
-      </c>
-      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="16" t="s">
@@ -854,10 +811,6 @@
         <v>1</v>
       </c>
       <c r="I5" s="8"/>
-      <c r="J5" s="8">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="16" t="s">
@@ -877,10 +830,6 @@
         <v>2</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="16" t="s">
@@ -900,10 +849,6 @@
         <v>0</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="8">
-        <v>2</v>
-      </c>
-      <c r="K7" s="8"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="12" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
@@ -1243,7 +1188,7 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1266,7 +1211,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -1289,7 +1234,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -1307,12 +1252,12 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -1335,7 +1280,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -1346,140 +1291,92 @@
       <c r="L29" s="20"/>
       <c r="M29" s="21"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14">
-        <v>6</v>
-      </c>
-      <c r="K30" s="14"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="19"/>
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21"/>
     </row>
     <row r="31" spans="1:13" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="8">
-        <v>4</v>
-      </c>
+      <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="20"/>
       <c r="M31" s="21"/>
     </row>
     <row r="32" spans="1:13" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A32" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="8">
-        <v>4</v>
-      </c>
+      <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="20"/>
       <c r="M32" s="21"/>
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="8">
-        <v>4</v>
-      </c>
+      <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="20"/>
       <c r="M33" s="21"/>
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A34" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="8">
-        <v>4</v>
-      </c>
+      <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="20"/>
       <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="8">
-        <v>6</v>
-      </c>
+      <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="20"/>
       <c r="M35" s="21"/>
@@ -1976,14 +1873,7 @@
       <c r="K78" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="311">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
+  <mergeCells count="304">
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="L50:M50"/>
